--- a/public/files/test-price.xlsx
+++ b/public/files/test-price.xlsx
@@ -3,30 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084A137F-7D2A-44F1-B037-343009FF7B1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9BBDC5A-856D-4CEE-8AC2-5B553C469519}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
   <si>
     <t>min</t>
   </si>
@@ -43,31 +37,193 @@
     <t>Яблоко</t>
   </si>
   <si>
-    <t>Бекон</t>
-  </si>
-  <si>
-    <t>Білий налив</t>
-  </si>
-  <si>
-    <t>Богатир</t>
-  </si>
-  <si>
-    <t>Боровинка</t>
-  </si>
-  <si>
-    <t>Брусничне</t>
-  </si>
-  <si>
-    <t>Грецкий орех</t>
-  </si>
-  <si>
-    <t>Лесной орех</t>
-  </si>
-  <si>
-    <t>Орехи</t>
-  </si>
-  <si>
     <t>product</t>
+  </si>
+  <si>
+    <t>Голден Делишес</t>
+  </si>
+  <si>
+    <t>Помидор</t>
+  </si>
+  <si>
+    <t>тепличный розовый</t>
+  </si>
+  <si>
+    <t>Груша</t>
+  </si>
+  <si>
+    <t>Орех грецкий</t>
+  </si>
+  <si>
+    <t>Абрикос</t>
+  </si>
+  <si>
+    <t>Курага</t>
+  </si>
+  <si>
+    <t>Банан</t>
+  </si>
+  <si>
+    <t>Виноград</t>
+  </si>
+  <si>
+    <t>Персик</t>
+  </si>
+  <si>
+    <t>Апельсин</t>
+  </si>
+  <si>
+    <t>Мандарин</t>
+  </si>
+  <si>
+    <t>Малина</t>
+  </si>
+  <si>
+    <t>Земляника</t>
+  </si>
+  <si>
+    <t>Голубика</t>
+  </si>
+  <si>
+    <t>Ежевика</t>
+  </si>
+  <si>
+    <t>Смородина</t>
+  </si>
+  <si>
+    <t>Черешня</t>
+  </si>
+  <si>
+    <t>Вишня</t>
+  </si>
+  <si>
+    <t>Арбуз</t>
+  </si>
+  <si>
+    <t>Дыня</t>
+  </si>
+  <si>
+    <t>Картофель</t>
+  </si>
+  <si>
+    <t>Морковь</t>
+  </si>
+  <si>
+    <t>Лук</t>
+  </si>
+  <si>
+    <t>Огурец</t>
+  </si>
+  <si>
+    <t>Перец</t>
+  </si>
+  <si>
+    <t>Айдаред</t>
+  </si>
+  <si>
+    <t>Джонаголд</t>
+  </si>
+  <si>
+    <t>Ренет Симиренко</t>
+  </si>
+  <si>
+    <t>Гала</t>
+  </si>
+  <si>
+    <t>Грани Смит</t>
+  </si>
+  <si>
+    <t>Фуджи</t>
+  </si>
+  <si>
+    <t>раннее</t>
+  </si>
+  <si>
+    <t>другое</t>
+  </si>
+  <si>
+    <t>конференция</t>
+  </si>
+  <si>
+    <t>другая</t>
+  </si>
+  <si>
+    <t>ядро</t>
+  </si>
+  <si>
+    <t>в скорлупе</t>
+  </si>
+  <si>
+    <t>столовый белый</t>
+  </si>
+  <si>
+    <t>столовый красный</t>
+  </si>
+  <si>
+    <t>Молдова</t>
+  </si>
+  <si>
+    <t>Черный</t>
+  </si>
+  <si>
+    <t>Кишмиш</t>
+  </si>
+  <si>
+    <t>в/с</t>
+  </si>
+  <si>
+    <t>1с</t>
+  </si>
+  <si>
+    <t>черная</t>
+  </si>
+  <si>
+    <t>красная</t>
+  </si>
+  <si>
+    <t>(Ø более 26 мм)</t>
+  </si>
+  <si>
+    <t>(Ø до 26 мм)</t>
+  </si>
+  <si>
+    <t>урожая текущего года</t>
+  </si>
+  <si>
+    <t>прошлогодний</t>
+  </si>
+  <si>
+    <t>жёлтый урожая текущего года</t>
+  </si>
+  <si>
+    <t>жёлтый прошлогодний</t>
+  </si>
+  <si>
+    <t>тепличный красный круглый</t>
+  </si>
+  <si>
+    <t>тепличный красный мясистый</t>
+  </si>
+  <si>
+    <t>тепличный черри</t>
+  </si>
+  <si>
+    <t>тепличный гладкий короткий</t>
+  </si>
+  <si>
+    <t>тепличный пупырчастый короткий</t>
+  </si>
+  <si>
+    <t>тепличный гладкий длинный</t>
+  </si>
+  <si>
+    <t>сладкий красный тепличный</t>
+  </si>
+  <si>
+    <t>сладкий зелёный тепличный</t>
+  </si>
+  <si>
+    <t>сладкий жёлтый тепличный</t>
   </si>
 </sst>
 </file>
@@ -147,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -168,6 +324,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -448,24 +607,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="42.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>3</v>
@@ -480,484 +639,805 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1">
-        <v>33</v>
-      </c>
-      <c r="E2" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1">
-        <v>45</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="B4" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1">
-        <v>55</v>
-      </c>
-      <c r="D5" s="1">
-        <v>56</v>
-      </c>
-      <c r="E5" s="1">
-        <v>55.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="B11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1">
-        <v>78</v>
-      </c>
-      <c r="D7" s="1">
-        <v>99</v>
-      </c>
-      <c r="E7" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1">
-        <v>33</v>
-      </c>
-      <c r="E8" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="6"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B54" s="4"/>
+      <c r="B44" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="6"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" s="4"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B60" s="4"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" s="4"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62" s="4"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B63" s="4"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" s="4"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="4"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="4"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="4"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="4"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="4"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="4"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="4"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="4"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="4"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="4"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="4"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="4"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="4"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="4"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="4"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="4"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="4"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="4"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="4"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="4"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="4"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="4"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="4"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="4"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="4"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="4"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="4"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="4"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="4"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
